--- a/biology/Zoologie/Culex_quinquefasciatus/Culex_quinquefasciatus.xlsx
+++ b/biology/Zoologie/Culex_quinquefasciatus/Culex_quinquefasciatus.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Culex quinquefasciatus est une espèce d'insectes diptères, un moustique vecteur de diverses maladies dont la fièvre du Nil occidental (ou fièvre du Nil), de l'encéphalite de Saint Louis, du paludisme aviaire dû à Plasmodium relictum. Sa répartition est cosmopolite.
 </t>
@@ -511,9 +523,11 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">En 1823, l'entomologiste américain Thomas Say décrivit Culex (latin pour « moucheron ») quinquefasciatus, qu'il collecta le long du fleuve Mississippi. Initialement écrit comme "C. 5-fasciatus", le nom fait référence à 5 (quinque) bandes noires, larges et transversales (fasciatus ou fasciae) sur l'abdomen dorsal du moustique. Le nom reste malgré les révélations ultérieures de plus de 5 fascias, grâce à une microscopie améliorée. Bien que quinquefasciatus soit le nom scientifique officiel, il existe au moins 5 noms synonymes pour cette espèce. Say a décrit cette espèce comme « excessivement nombreuse et gênante »  [1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">En 1823, l'entomologiste américain Thomas Say décrivit Culex (latin pour « moucheron ») quinquefasciatus, qu'il collecta le long du fleuve Mississippi. Initialement écrit comme "C. 5-fasciatus", le nom fait référence à 5 (quinque) bandes noires, larges et transversales (fasciatus ou fasciae) sur l'abdomen dorsal du moustique. Le nom reste malgré les révélations ultérieures de plus de 5 fascias, grâce à une microscopie améliorée. Bien que quinquefasciatus soit le nom scientifique officiel, il existe au moins 5 noms synonymes pour cette espèce. Say a décrit cette espèce comme « excessivement nombreuse et gênante »  .
 </t>
         </is>
       </c>
@@ -542,7 +556,9 @@
           <t>Synonymes (source :  MIVEGEC ARIM)</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Culex acer Walker	1848
 Culex aestuans Wiedemann 1828
